--- a/dataLogin.xlsx
+++ b/dataLogin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HAU\Automation Test - DEVPRO-Auto27\AutoT27-Devpro\AutoT27-Devpro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF3B429-493A-489B-81DF-4E267F740827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91D6F09-0A80-402D-9776-950D7F8C1180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{B2E30C69-AEA7-4CFC-816A-02A748DFFF17}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>Password</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>standard_user1</t>
+  </si>
+  <si>
+    <t>ExpectedResult</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -412,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10428F74-A0E5-4817-B46F-2D6842E3D04D}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -424,54 +433,75 @@
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
